--- a/biology/Médecine/Centre_de_prévention_et_du_contrôle_des_maladies_de_Wuhan/Centre_de_prévention_et_du_contrôle_des_maladies_de_Wuhan.xlsx
+++ b/biology/Médecine/Centre_de_prévention_et_du_contrôle_des_maladies_de_Wuhan/Centre_de_prévention_et_du_contrôle_des_maladies_de_Wuhan.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Centre_de_pr%C3%A9vention_et_du_contr%C3%B4le_des_maladies_de_Wuhan</t>
+          <t>Centre_de_prévention_et_du_contrôle_des_maladies_de_Wuhan</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le Centre de prévention et du contrôle des maladies de Wuhan (en chinois mandarin : 武汉市疾病预防控制中心), situé 24 Jianghan N Rd, Jiang'an District, Wuhan, Hubei, Chine ;  a été officiellement créé en décembre 2002. Son prédécesseur était le Centre municipal de santé et de prévention des épidémies de Wuhan, créé en septembre 1952[1],[2],[3],[4]. À ce titre, ce centre est hiérarchiquement subordonné directement au Centre chinois de contrôle et de prévention des maladies. Il est souvent à tort confondu avec l'Institut de virologie de Wuhan.
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le Centre de prévention et du contrôle des maladies de Wuhan (en chinois mandarin : 武汉市疾病预防控制中心), situé 24 Jianghan N Rd, Jiang'an District, Wuhan, Hubei, Chine ;  a été officiellement créé en décembre 2002. Son prédécesseur était le Centre municipal de santé et de prévention des épidémies de Wuhan, créé en septembre 1952. À ce titre, ce centre est hiérarchiquement subordonné directement au Centre chinois de contrôle et de prévention des maladies. Il est souvent à tort confondu avec l'Institut de virologie de Wuhan.
 Il est le centre de gestion et d'orientation des technologies commerciales de prévention et de contrôle des maladies de la ville de Wuhan. 
 Il s'agit d'un établissement de santé publique important.
 Ses principales responsabilités sont les suivantes : maladies infectieuses, maladies parasitaires, maladies endémiques, maladies non infectieuses, etc. 
@@ -497,7 +509,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Centre_de_pr%C3%A9vention_et_du_contr%C3%B4le_des_maladies_de_Wuhan</t>
+          <t>Centre_de_prévention_et_du_contrôle_des_maladies_de_Wuhan</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -515,7 +527,9 @@
           <t>Administration interne</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Le centre compte actuellement plus de 220 employés, dont 31,8% de cadres supérieurs professionnels et techniques, 63,1% de titulaires d'une maîtrise ou plus; 37 talents clés, dont 6 experts bénéficiant de subventions municipales; l'Université de Wuhan et l'Université des sciences et technologies de Huazhong 37 professeurs associés et professeurs. 
 Il compte plusieurs instituts en son sein :
@@ -541,7 +555,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Centre_de_pr%C3%A9vention_et_du_contr%C3%B4le_des_maladies_de_Wuhan</t>
+          <t>Centre_de_prévention_et_du_contrôle_des_maladies_de_Wuhan</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -559,11 +573,13 @@
           <t>Covid-19</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Au début de l'épidémie de Covid-19, plusieurs hypothèses sur les origines du virus sont suggérées. Une de ces dernières mentionne le centre comme potentiel source du virus (au même titre que le l'institut de virologie de Wuhan)[5]. Le centre est en effet situé à environ 280 m du marché de Wuhan, le premier cluster recensé du Covid-19[6]. En février 2020, deux chercheurs lancent la théorie selon laquelle le virus s'est échappé du centre, dans un article publié sur ResearchGate[7]. L'article a été retiré depuis[7].
-En avril 2020, le chercheur Richard H. Ebright reprend l'hypothèse selon laquelle il est possible que le SARS-Cov2 provienne de ce laboratoire[8]. 
-La communauté scientifique considère néanmoins qu'il n'existe aucune preuve de ces allégations[9].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Au début de l'épidémie de Covid-19, plusieurs hypothèses sur les origines du virus sont suggérées. Une de ces dernières mentionne le centre comme potentiel source du virus (au même titre que le l'institut de virologie de Wuhan). Le centre est en effet situé à environ 280 m du marché de Wuhan, le premier cluster recensé du Covid-19. En février 2020, deux chercheurs lancent la théorie selon laquelle le virus s'est échappé du centre, dans un article publié sur ResearchGate. L'article a été retiré depuis.
+En avril 2020, le chercheur Richard H. Ebright reprend l'hypothèse selon laquelle il est possible que le SARS-Cov2 provienne de ce laboratoire. 
+La communauté scientifique considère néanmoins qu'il n'existe aucune preuve de ces allégations.
 </t>
         </is>
       </c>
